--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Wnt5a-Fzd4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Wnt5a-Fzd4.xlsx
@@ -534,46 +534,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06862399999999999</v>
+        <v>0.02354566666666667</v>
       </c>
       <c r="H2">
-        <v>0.205872</v>
+        <v>0.07063700000000001</v>
       </c>
       <c r="I2">
-        <v>0.008161958451368766</v>
+        <v>0.002815555392485919</v>
       </c>
       <c r="J2">
-        <v>0.008161958451368766</v>
+        <v>0.002815555392485918</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>13.57958433333333</v>
+        <v>28.22405966666667</v>
       </c>
       <c r="N2">
-        <v>40.738753</v>
+        <v>84.672179</v>
       </c>
       <c r="O2">
-        <v>0.2289698008477291</v>
+        <v>0.3816548478108986</v>
       </c>
       <c r="P2">
-        <v>0.2289698008477291</v>
+        <v>0.3816548478108986</v>
       </c>
       <c r="Q2">
-        <v>0.9318853952906666</v>
+        <v>0.6645543008914445</v>
       </c>
       <c r="R2">
-        <v>8.386968557615999</v>
+        <v>5.980988708023</v>
       </c>
       <c r="S2">
-        <v>0.001868842001137345</v>
+        <v>0.001074570364822368</v>
       </c>
       <c r="T2">
-        <v>0.001868842001137345</v>
+        <v>0.001074570364822368</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06862399999999999</v>
+        <v>0.02354566666666667</v>
       </c>
       <c r="H3">
-        <v>0.205872</v>
+        <v>0.07063700000000001</v>
       </c>
       <c r="I3">
-        <v>0.008161958451368766</v>
+        <v>0.002815555392485919</v>
       </c>
       <c r="J3">
-        <v>0.008161958451368766</v>
+        <v>0.002815555392485918</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>19.768727</v>
       </c>
       <c r="N3">
-        <v>59.30618100000001</v>
+        <v>59.306181</v>
       </c>
       <c r="O3">
-        <v>0.3333269541315949</v>
+        <v>0.2673191094302723</v>
       </c>
       <c r="P3">
-        <v>0.3333269541315949</v>
+        <v>0.2673191094302723</v>
       </c>
       <c r="Q3">
-        <v>1.356609121648</v>
+        <v>0.4654678563663334</v>
       </c>
       <c r="R3">
-        <v>12.209482094832</v>
+        <v>4.189210707297</v>
       </c>
       <c r="S3">
-        <v>0.00272060075034338</v>
+        <v>0.0007526517600709367</v>
       </c>
       <c r="T3">
-        <v>0.00272060075034338</v>
+        <v>0.0007526517600709365</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.06862399999999999</v>
+        <v>0.02354566666666667</v>
       </c>
       <c r="H4">
-        <v>0.205872</v>
+        <v>0.07063700000000001</v>
       </c>
       <c r="I4">
-        <v>0.008161958451368766</v>
+        <v>0.002815555392485919</v>
       </c>
       <c r="J4">
-        <v>0.008161958451368766</v>
+        <v>0.002815555392485918</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.95900466666666</v>
+        <v>25.95900466666667</v>
       </c>
       <c r="N4">
-        <v>77.87701399999999</v>
+        <v>77.877014</v>
       </c>
       <c r="O4">
-        <v>0.437703245020676</v>
+        <v>0.351026042758829</v>
       </c>
       <c r="P4">
-        <v>0.4377032450206761</v>
+        <v>0.351026042758829</v>
       </c>
       <c r="Q4">
-        <v>1.781410736245333</v>
+        <v>0.6112220708797779</v>
       </c>
       <c r="R4">
-        <v>16.032696626208</v>
+        <v>5.500998637918</v>
       </c>
       <c r="S4">
-        <v>0.00357251569988804</v>
+        <v>0.0009883332675926137</v>
       </c>
       <c r="T4">
-        <v>0.003572515699888041</v>
+        <v>0.0009883332675926135</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>24.758105</v>
       </c>
       <c r="I5">
-        <v>0.9815546764233375</v>
+        <v>0.9868456480383168</v>
       </c>
       <c r="J5">
-        <v>0.9815546764233374</v>
+        <v>0.9868456480383166</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>13.57958433333333</v>
+        <v>28.22405966666667</v>
       </c>
       <c r="N5">
-        <v>40.738753</v>
+        <v>84.672179</v>
       </c>
       <c r="O5">
-        <v>0.2289698008477291</v>
+        <v>0.3816548478108986</v>
       </c>
       <c r="P5">
-        <v>0.2289698008477291</v>
+        <v>0.3816548478108986</v>
       </c>
       <c r="Q5">
-        <v>112.0682582603406</v>
+        <v>232.9247442511994</v>
       </c>
       <c r="R5">
-        <v>1008.614324343065</v>
+        <v>2096.322698260795</v>
       </c>
       <c r="S5">
-        <v>0.2247463787818087</v>
+        <v>0.3766344256149114</v>
       </c>
       <c r="T5">
-        <v>0.2247463787818087</v>
+        <v>0.3766344256149114</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>24.758105</v>
       </c>
       <c r="I6">
-        <v>0.9815546764233375</v>
+        <v>0.9868456480383168</v>
       </c>
       <c r="J6">
-        <v>0.9815546764233374</v>
+        <v>0.9868456480383166</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,13 +803,13 @@
         <v>19.768727</v>
       </c>
       <c r="N6">
-        <v>59.30618100000001</v>
+        <v>59.306181</v>
       </c>
       <c r="O6">
-        <v>0.3333269541315949</v>
+        <v>0.2673191094302723</v>
       </c>
       <c r="P6">
-        <v>0.3333269541315949</v>
+        <v>0.2673191094302723</v>
       </c>
       <c r="Q6">
         <v>163.1454062607783</v>
@@ -818,10 +818,10 @@
         <v>1468.308656347005</v>
       </c>
       <c r="S6">
-        <v>0.3271786306058143</v>
+        <v>0.2638026997787428</v>
       </c>
       <c r="T6">
-        <v>0.3271786306058143</v>
+        <v>0.2638026997787428</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>24.758105</v>
       </c>
       <c r="I7">
-        <v>0.9815546764233375</v>
+        <v>0.9868456480383168</v>
       </c>
       <c r="J7">
-        <v>0.9815546764233374</v>
+        <v>0.9868456480383166</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,16 +862,16 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.95900466666666</v>
+        <v>25.95900466666667</v>
       </c>
       <c r="N7">
-        <v>77.87701399999999</v>
+        <v>77.877014</v>
       </c>
       <c r="O7">
-        <v>0.437703245020676</v>
+        <v>0.351026042758829</v>
       </c>
       <c r="P7">
-        <v>0.4377032450206761</v>
+        <v>0.351026042758829</v>
       </c>
       <c r="Q7">
         <v>214.2319210776078</v>
@@ -880,10 +880,10 @@
         <v>1928.08728969847</v>
       </c>
       <c r="S7">
-        <v>0.4296296670357145</v>
+        <v>0.3464085226446625</v>
       </c>
       <c r="T7">
-        <v>0.4296296670357145</v>
+        <v>0.3464085226446624</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>0.259381</v>
       </c>
       <c r="I8">
-        <v>0.01028336512529378</v>
+        <v>0.0103387965691973</v>
       </c>
       <c r="J8">
-        <v>0.01028336512529378</v>
+        <v>0.0103387965691973</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>13.57958433333333</v>
+        <v>28.22405966666667</v>
       </c>
       <c r="N8">
-        <v>40.738753</v>
+        <v>84.672179</v>
       </c>
       <c r="O8">
-        <v>0.2289698008477291</v>
+        <v>0.3816548478108986</v>
       </c>
       <c r="P8">
-        <v>0.2289698008477291</v>
+        <v>0.3816548478108986</v>
       </c>
       <c r="Q8">
-        <v>1.174095387988111</v>
+        <v>2.440261606799889</v>
       </c>
       <c r="R8">
-        <v>10.566858491893</v>
+        <v>21.962354461199</v>
       </c>
       <c r="S8">
-        <v>0.002354580064783</v>
+        <v>0.003945851831164838</v>
       </c>
       <c r="T8">
-        <v>0.002354580064783</v>
+        <v>0.003945851831164838</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>0.259381</v>
       </c>
       <c r="I9">
-        <v>0.01028336512529378</v>
+        <v>0.0103387965691973</v>
       </c>
       <c r="J9">
-        <v>0.01028336512529378</v>
+        <v>0.0103387965691973</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,25 +989,25 @@
         <v>19.768727</v>
       </c>
       <c r="N9">
-        <v>59.30618100000001</v>
+        <v>59.306181</v>
       </c>
       <c r="O9">
-        <v>0.3333269541315949</v>
+        <v>0.2673191094302723</v>
       </c>
       <c r="P9">
-        <v>0.3333269541315949</v>
+        <v>0.2673191094302723</v>
       </c>
       <c r="Q9">
-        <v>1.709210725995667</v>
+        <v>1.709210725995666</v>
       </c>
       <c r="R9">
         <v>15.382896533961</v>
       </c>
       <c r="S9">
-        <v>0.003427722775437243</v>
+        <v>0.002763757891458578</v>
       </c>
       <c r="T9">
-        <v>0.003427722775437244</v>
+        <v>0.002763757891458578</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>0.259381</v>
       </c>
       <c r="I10">
-        <v>0.01028336512529378</v>
+        <v>0.0103387965691973</v>
       </c>
       <c r="J10">
-        <v>0.01028336512529378</v>
+        <v>0.0103387965691973</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>25.95900466666666</v>
+        <v>25.95900466666667</v>
       </c>
       <c r="N10">
-        <v>77.87701399999999</v>
+        <v>77.877014</v>
       </c>
       <c r="O10">
-        <v>0.437703245020676</v>
+        <v>0.351026042758829</v>
       </c>
       <c r="P10">
-        <v>0.4377032450206761</v>
+        <v>0.351026042758829</v>
       </c>
       <c r="Q10">
         <v>2.244424196481555</v>
       </c>
       <c r="R10">
-        <v>20.19981776833399</v>
+        <v>20.199817768334</v>
       </c>
       <c r="S10">
-        <v>0.00450106228507354</v>
+        <v>0.003629186846573887</v>
       </c>
       <c r="T10">
-        <v>0.00450106228507354</v>
+        <v>0.003629186846573887</v>
       </c>
     </row>
   </sheetData>
